--- a/new_targets.xlsx
+++ b/new_targets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Экспорт, млн долларов США</t>
   </si>
   <si>
     <t xml:space="preserve">Импорт, млн долларов США</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Экспорт больше экспорта в предыдущем году</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Импорт больше импорта в предыдущем году</t>
   </si>
 </sst>
 </file>
@@ -40,6 +46,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -60,6 +67,7 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -104,13 +112,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -130,16 +142,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P4"/>
+  <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B25" activeCellId="0" sqref="B25"/>
+      <selection pane="topLeft" activeCell="P9" activeCellId="0" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="34.2244897959184"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="39.7755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -303,7 +315,134 @@
         <v>1761.6</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <f aca="false">IF(C2&gt;B2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <f aca="false">IF(D2&gt;C2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <f aca="false">IF(E2&gt;D2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <f aca="false">IF(F2&gt;E2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="2" t="n">
+        <f aca="false">IF(G2&gt;F2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="2" t="n">
+        <f aca="false">IF(H2&gt;G2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="2" t="n">
+        <f aca="false">IF(I2&gt;H2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="2" t="n">
+        <f aca="false">IF(J2&gt;I2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <f aca="false">IF(K2&gt;J2, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <f aca="false">IF(L2&gt;K2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <f aca="false">IF(M2&gt;L2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N4" s="2" t="n">
+        <f aca="false">IF(N2&gt;M2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="O4" s="2" t="n">
+        <f aca="false">IF(O2&gt;N2, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="P4" s="2" t="n">
+        <f aca="false">IF(P2&gt;O2, 1, 0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <f aca="false">IF(C3&gt;B3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <f aca="false">IF(D3&gt;C3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <f aca="false">IF(E3&gt;D3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <f aca="false">IF(F3&gt;E3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <f aca="false">IF(G3&gt;F3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <f aca="false">IF(H3&gt;G3, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="2" t="n">
+        <f aca="false">IF(I3&gt;H3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="2" t="n">
+        <f aca="false">IF(J3&gt;I3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="K5" s="2" t="n">
+        <f aca="false">IF(K3&gt;J3, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="2" t="n">
+        <f aca="false">IF(L3&gt;K3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <f aca="false">IF(M3&gt;L3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="N5" s="2" t="n">
+        <f aca="false">IF(N3&gt;M3, 1, 0)</f>
+        <v>1</v>
+      </c>
+      <c r="O5" s="2" t="n">
+        <f aca="false">IF(O3&gt;N3, 1, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="n">
+        <f aca="false">IF(P3&gt;O3, 1, 0)</f>
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
